--- a/biology/Botanique/Cisterna_d'Asti_(DOC)/Cisterna_d'Asti_(DOC).xlsx
+++ b/biology/Botanique/Cisterna_d'Asti_(DOC)/Cisterna_d'Asti_(DOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cisterna_d%27Asti_(DOC)</t>
+          <t>Cisterna_d'Asti_(DOC)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Cisterna d’Asti est un vin rouge italien de la région Piémont doté d'une appellation DOC depuis le 17 juillet 2002. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cisterna_d%27Asti_(DOC)</t>
+          <t>Cisterna_d'Asti_(DOC)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province d'Asti dans les communes de Cisterna d'Asti, Antignano, Cantarana, Ferrere, San Damiano d'Asti et San Martino Alfieri ainsi que dans les communes de Canale, Castellinaldo, Govone, Montà, Monteu Roero, Vezza d'Alba et Santo Stefano Roero en province de Cuneo.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cisterna_d%27Asti_(DOC)</t>
+          <t>Cisterna_d'Asti_(DOC)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge rubis intense
 odeur : intense, fruité, caractéristique
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cisterna_d%27Asti_(DOC)</t>
+          <t>Cisterna_d'Asti_(DOC)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cisterna_d%27Asti_(DOC)</t>
+          <t>Cisterna_d'Asti_(DOC)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -612,7 +632,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cisterna_d%27Asti_(DOC)</t>
+          <t>Cisterna_d'Asti_(DOC)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -630,7 +650,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
  pas de données disponibles 
